--- a/slide19/unmerged.xlsx
+++ b/slide19/unmerged.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>kod</t>
   </si>
@@ -37,7 +37,13 @@
     <t>0420000</t>
   </si>
   <si>
-    <t>3120000</t>
+    <t>0550000</t>
+  </si>
+  <si>
+    <t>1600000</t>
+  </si>
+  <si>
+    <t>1610000</t>
   </si>
   <si>
     <t>3800000</t>
@@ -52,10 +58,22 @@
     <t>6340000</t>
   </si>
   <si>
-    <t>Господарсько-фінансовий департамент Секретаріату Кабінету Міністрів України (загальнодержавні витрати)</t>
-  </si>
-  <si>
-    <t>Міністерство інфраструктури України (загальнодержавні витрати)</t>
+    <t>6420000</t>
+  </si>
+  <si>
+    <t>6430000</t>
+  </si>
+  <si>
+    <t>Господарсько-фінансовий департамент Секретаріату Кабінету Міністрів України (загальнодержавні видатки та кредитування)</t>
+  </si>
+  <si>
+    <t>Верховний Суд</t>
+  </si>
+  <si>
+    <t>Міністерство з питань тимчасово окупованих територій та внутрішньо переміщених осіб України</t>
+  </si>
+  <si>
+    <t>Міністерство з питань тимчасово окупованих територій та внутрішньо переміщених осіб (загальнодержавні видатки та кредитування)</t>
   </si>
   <si>
     <t>Міністерство інформаційної політики України</t>
@@ -68,6 +86,12 @@
   </si>
   <si>
     <t>Національна комісія, що здійснює державне регулювання у сферах енергетики та комунальних послуг</t>
+  </si>
+  <si>
+    <t>Державне бюро розслідувань</t>
+  </si>
+  <si>
+    <t>Національне агентство України з питань виявлення, розшуку та управління активами, одержаними від корупційних та інших злочинів</t>
   </si>
 </sst>
 </file>
@@ -425,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,7 +483,7 @@
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -473,10 +497,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G3">
-        <v>99209400</v>
+        <v>1406796388.05</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -487,10 +511,10 @@
         <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G4">
-        <v>135007405.47</v>
+        <v>72137636.7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,10 +525,10 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G5">
-        <v>68401863.57000001</v>
+        <v>30435423.99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -515,10 +539,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>857623855.1000001</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -529,10 +553,66 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G7">
-        <v>49801001.12</v>
+        <v>793848329.5500001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
+        <v>112</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8">
+        <v>677483494.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
+        <v>113</v>
+      </c>
+      <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9">
+        <v>325639918.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
+        <v>114</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>137207885.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11">
+        <v>93863148.83</v>
       </c>
     </row>
   </sheetData>
